--- a/biology/Botanique/Stenandrium/Stenandrium.xlsx
+++ b/biology/Botanique/Stenandrium/Stenandrium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Stenandrium Nees est un genre de plantes de la famille des Acanthaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (11 janvier 2018)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (11 janvier 2018) :
 Stenandrium acuminatum Urb.
 Stenandrium affine S. L. Moore
 Stenandrium andrei (Leonard) D.C. Wassh.
@@ -562,14 +576,14 @@
 Stenandrium villarroelii J.R.I.Wood
 Stenandrium villosum Nees
 Stenandrium wrightii Lindau
-Selon GRIN            (11 janvier 2018)[3] :
+Selon GRIN            (11 janvier 2018) :
 Stenandrium dulce (Cav.) Nees
 Stenandrium tuberosum (L.) Urb.
-Selon ITIS      (11 janvier 2018)[4] :
+Selon ITIS      (11 janvier 2018) :
 Stenandrium barbatum Torr. &amp; A. Gray
 Stenandrium dulce (Cav.) Nees
 Stenandrium tuberosum (L.) Urb.
-Selon NCBI  (11 janvier 2018)[5] :
+Selon NCBI  (11 janvier 2018) :
 Stenandrium afromontanum
 Stenandrium guineense
 Stenandrium humile
@@ -577,7 +591,7 @@
 Stenandrium pilosulum
 Stenandrium thompsonii
 Stenandrium warneckei
-Selon The Plant List            (11 janvier 2018)[6] :
+Selon The Plant List            (11 janvier 2018) :
 Stenandrium affine S. Moore
 Stenandrium afromontanum (Mildbr.) Vollesen
 Stenandrium amoenum (Benoist) Vollesen
@@ -627,7 +641,7 @@
 Stenandrium tuberosum (L.) Urb.
 Stenandrium verticillatum Brandegee
 Stenandrium warneckei (S. Moore) Vollesen
-Selon Tropicos                                           (11 janvier 2018)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (11 janvier 2018) (Attention liste brute contenant possiblement des synonymes) :
 Stenandrium acuminatum Urb.
 Stenandrium affine S. Moore
 Stenandrium afromontanum (Mildbr.) Vollesen
